--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,47 +14,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>游戏名称</t>
   </si>
   <si>
+    <t>MC斗牛01</t>
+  </si>
+  <si>
+    <t>MC龙虎斗03</t>
+  </si>
+  <si>
+    <t>MC斗牛02</t>
+  </si>
+  <si>
+    <t>MC百家乐A01</t>
+  </si>
+  <si>
+    <t>MC百家乐A04</t>
+  </si>
+  <si>
+    <t>MC龙虎斗01</t>
+  </si>
+  <si>
+    <t>MC百家乐V01</t>
+  </si>
+  <si>
+    <t>MC百家乐V03</t>
+  </si>
+  <si>
+    <t>MC百家乐09</t>
+  </si>
+  <si>
+    <t>MC百家乐02</t>
+  </si>
+  <si>
+    <t>MC真人百家乐</t>
+  </si>
+  <si>
+    <t>MC龙虎斗02</t>
+  </si>
+  <si>
     <t>MC百家乐03</t>
   </si>
   <si>
-    <t>MC龙虎斗</t>
-  </si>
-  <si>
-    <t>MC斗牛</t>
+    <t>MC百家乐A03</t>
   </si>
   <si>
     <t>MC百家乐06</t>
   </si>
   <si>
+    <t>MC百家乐V02</t>
+  </si>
+  <si>
     <t>MC百家乐05</t>
   </si>
   <si>
+    <t>MC百家乐V04</t>
+  </si>
+  <si>
+    <t>MC百家乐A02</t>
+  </si>
+  <si>
     <t>MC百家乐07</t>
   </si>
   <si>
     <t>MC百家乐04</t>
   </si>
   <si>
-    <t>MC真人百家乐</t>
-  </si>
-  <si>
-    <t>MC百家乐02</t>
-  </si>
-  <si>
-    <t>MC百家乐09</t>
+    <t>MC百家乐08</t>
   </si>
   <si>
     <t>MC百家乐01</t>
   </si>
   <si>
-    <t>MC百家乐08</t>
-  </si>
-  <si>
     <t>MC秒速赛车</t>
   </si>
   <si>
@@ -115,529 +148,718 @@
     <t>极速飞艇</t>
   </si>
   <si>
-    <t>体育</t>
-  </si>
-  <si>
     <t>投注笔数</t>
   </si>
   <si>
-    <t>7630</t>
-  </si>
-  <si>
-    <t>2677</t>
+    <t>225</t>
+  </si>
+  <si>
+    <t>2428</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>7265</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>6578</t>
-  </si>
-  <si>
-    <t>6514</t>
-  </si>
-  <si>
-    <t>25119</t>
-  </si>
-  <si>
-    <t>8067</t>
-  </si>
-  <si>
-    <t>6969</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>5046</t>
+  </si>
+  <si>
+    <t>3836</t>
+  </si>
+  <si>
+    <t>14566</t>
+  </si>
+  <si>
+    <t>2688</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>3966</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>4673</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3406</t>
+  </si>
+  <si>
+    <t>5384</t>
+  </si>
+  <si>
+    <t>4339</t>
+  </si>
+  <si>
+    <t>34741</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>13725</t>
+  </si>
+  <si>
+    <t>30895</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>15545</t>
+  </si>
+  <si>
+    <t>39144</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>9465</t>
+  </si>
+  <si>
+    <t>20632</t>
+  </si>
+  <si>
+    <t>127550</t>
+  </si>
+  <si>
+    <t>3758</t>
+  </si>
+  <si>
+    <t>42790</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>76132</t>
+  </si>
+  <si>
+    <t>14390</t>
+  </si>
+  <si>
+    <t>228882</t>
+  </si>
+  <si>
+    <t>有效投注额</t>
+  </si>
+  <si>
+    <t>6712</t>
+  </si>
+  <si>
+    <t>313089</t>
+  </si>
+  <si>
+    <t>66755</t>
+  </si>
+  <si>
+    <t>6651</t>
   </si>
   <si>
     <t>8127</t>
   </si>
   <si>
-    <t>7642</t>
-  </si>
-  <si>
-    <t>51883</t>
-  </si>
-  <si>
-    <t>3896</t>
-  </si>
-  <si>
-    <t>11425</t>
-  </si>
-  <si>
-    <t>23602</t>
-  </si>
-  <si>
-    <t>48967</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17284</t>
-  </si>
-  <si>
-    <t>46051</t>
-  </si>
-  <si>
-    <t>1172</t>
-  </si>
-  <si>
-    <t>11681</t>
-  </si>
-  <si>
-    <t>37532</t>
-  </si>
-  <si>
-    <t>220595</t>
-  </si>
-  <si>
-    <t>5915</t>
-  </si>
-  <si>
-    <t>138038</t>
-  </si>
-  <si>
-    <t>2809</t>
-  </si>
-  <si>
-    <t>3747</t>
-  </si>
-  <si>
-    <t>145344</t>
-  </si>
-  <si>
-    <t>65767</t>
-  </si>
-  <si>
-    <t>153717</t>
-  </si>
-  <si>
-    <t>有效投注额</t>
-  </si>
-  <si>
-    <t>741558</t>
-  </si>
-  <si>
-    <t>260529</t>
-  </si>
-  <si>
-    <t>1328223</t>
-  </si>
-  <si>
-    <t>630284</t>
-  </si>
-  <si>
-    <t>1381750</t>
-  </si>
-  <si>
-    <t>1148758</t>
-  </si>
-  <si>
-    <t>2536694</t>
-  </si>
-  <si>
-    <t>758332</t>
-  </si>
-  <si>
-    <t>1494145</t>
-  </si>
-  <si>
-    <t>846008</t>
-  </si>
-  <si>
-    <t>1298377</t>
-  </si>
-  <si>
-    <t>2162405</t>
-  </si>
-  <si>
-    <t>169310</t>
-  </si>
-  <si>
-    <t>353807</t>
-  </si>
-  <si>
-    <t>1656136</t>
-  </si>
-  <si>
-    <t>501777</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>237517</t>
-  </si>
-  <si>
-    <t>1248062</t>
-  </si>
-  <si>
-    <t>11783</t>
-  </si>
-  <si>
-    <t>129628</t>
-  </si>
-  <si>
-    <t>1781845</t>
-  </si>
-  <si>
-    <t>6867276</t>
-  </si>
-  <si>
-    <t>244808</t>
-  </si>
-  <si>
-    <t>2337918</t>
-  </si>
-  <si>
-    <t>29574</t>
-  </si>
-  <si>
-    <t>290302</t>
-  </si>
-  <si>
-    <t>2419689</t>
-  </si>
-  <si>
-    <t>888909</t>
-  </si>
-  <si>
-    <t>3120652</t>
-  </si>
-  <si>
-    <t>1262254</t>
-  </si>
-  <si>
-    <t>660942</t>
-  </si>
-  <si>
-    <t>2541858</t>
-  </si>
-  <si>
-    <t>1543964</t>
-  </si>
-  <si>
-    <t>2158657</t>
-  </si>
-  <si>
-    <t>2657997</t>
-  </si>
-  <si>
-    <t>1162918</t>
-  </si>
-  <si>
-    <t>1480520</t>
-  </si>
-  <si>
-    <t>4481044</t>
-  </si>
-  <si>
-    <t>2286564</t>
-  </si>
-  <si>
-    <t>2347817</t>
-  </si>
-  <si>
-    <t>1271015</t>
-  </si>
-  <si>
-    <t>215052</t>
-  </si>
-  <si>
-    <t>99162</t>
-  </si>
-  <si>
-    <t>2037125</t>
-  </si>
-  <si>
-    <t>780789</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>287502</t>
-  </si>
-  <si>
-    <t>1098789</t>
-  </si>
-  <si>
-    <t>16961</t>
-  </si>
-  <si>
-    <t>125928</t>
-  </si>
-  <si>
-    <t>3153067</t>
-  </si>
-  <si>
-    <t>7403955</t>
-  </si>
-  <si>
-    <t>154019</t>
-  </si>
-  <si>
-    <t>2243927</t>
-  </si>
-  <si>
-    <t>35232</t>
-  </si>
-  <si>
-    <t>116222</t>
-  </si>
-  <si>
-    <t>2299461</t>
-  </si>
-  <si>
-    <t>789252</t>
-  </si>
-  <si>
-    <t>3398068</t>
+    <t>7127</t>
+  </si>
+  <si>
+    <t>18517</t>
+  </si>
+  <si>
+    <t>1065642</t>
+  </si>
+  <si>
+    <t>317750</t>
+  </si>
+  <si>
+    <t>2385281</t>
+  </si>
+  <si>
+    <t>219288</t>
+  </si>
+  <si>
+    <t>18771</t>
+  </si>
+  <si>
+    <t>415620</t>
+  </si>
+  <si>
+    <t>6315</t>
+  </si>
+  <si>
+    <t>615628</t>
+  </si>
+  <si>
+    <t>6619</t>
+  </si>
+  <si>
+    <t>21710</t>
+  </si>
+  <si>
+    <t>412903</t>
+  </si>
+  <si>
+    <t>450696</t>
+  </si>
+  <si>
+    <t>588394</t>
+  </si>
+  <si>
+    <t>443423</t>
+  </si>
+  <si>
+    <t>1304075</t>
+  </si>
+  <si>
+    <t>31560</t>
+  </si>
+  <si>
+    <t>167154</t>
+  </si>
+  <si>
+    <t>255650</t>
+  </si>
+  <si>
+    <t>988717</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>796761.8</t>
+  </si>
+  <si>
+    <t>2803242</t>
+  </si>
+  <si>
+    <t>8847</t>
+  </si>
+  <si>
+    <t>71348</t>
+  </si>
+  <si>
+    <t>224718</t>
+  </si>
+  <si>
+    <t>3098551</t>
+  </si>
+  <si>
+    <t>310187</t>
+  </si>
+  <si>
+    <t>674136</t>
+  </si>
+  <si>
+    <t>20942</t>
+  </si>
+  <si>
+    <t>16568</t>
+  </si>
+  <si>
+    <t>1659200</t>
+  </si>
+  <si>
+    <t>149532</t>
+  </si>
+  <si>
+    <t>4027956</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>76668</t>
+  </si>
+  <si>
+    <t>36143</t>
+  </si>
+  <si>
+    <t>80777</t>
+  </si>
+  <si>
+    <t>43519</t>
+  </si>
+  <si>
+    <t>4691</t>
+  </si>
+  <si>
+    <t>3225</t>
+  </si>
+  <si>
+    <t>592536</t>
+  </si>
+  <si>
+    <t>402473</t>
+  </si>
+  <si>
+    <t>3876931</t>
+  </si>
+  <si>
+    <t>280640</t>
+  </si>
+  <si>
+    <t>27714</t>
+  </si>
+  <si>
+    <t>522985</t>
+  </si>
+  <si>
+    <t>7761</t>
+  </si>
+  <si>
+    <t>361478</t>
+  </si>
+  <si>
+    <t>85575</t>
+  </si>
+  <si>
+    <t>342026</t>
+  </si>
+  <si>
+    <t>453918</t>
+  </si>
+  <si>
+    <t>450893</t>
+  </si>
+  <si>
+    <t>439827</t>
+  </si>
+  <si>
+    <t>955597</t>
+  </si>
+  <si>
+    <t>36027</t>
+  </si>
+  <si>
+    <t>44532</t>
+  </si>
+  <si>
+    <t>146600</t>
+  </si>
+  <si>
+    <t>1453130</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>164068</t>
+  </si>
+  <si>
+    <t>1695546</t>
+  </si>
+  <si>
+    <t>5503</t>
+  </si>
+  <si>
+    <t>173872</t>
+  </si>
+  <si>
+    <t>296468</t>
+  </si>
+  <si>
+    <t>3388767</t>
+  </si>
+  <si>
+    <t>173354</t>
+  </si>
+  <si>
+    <t>1102446</t>
+  </si>
+  <si>
+    <t>6921</t>
+  </si>
+  <si>
+    <t>9419</t>
+  </si>
+  <si>
+    <t>1466828</t>
+  </si>
+  <si>
+    <t>1449792</t>
+  </si>
+  <si>
+    <t>2895621</t>
   </si>
   <si>
     <t>返水</t>
   </si>
   <si>
-    <t>2782</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>5027</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>5489</t>
-  </si>
-  <si>
-    <t>4205</t>
-  </si>
-  <si>
-    <t>10058</t>
-  </si>
-  <si>
-    <t>2955</t>
-  </si>
-  <si>
-    <t>5931</t>
-  </si>
-  <si>
-    <t>3212</t>
-  </si>
-  <si>
-    <t>5146</t>
-  </si>
-  <si>
-    <t>17086</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>9321</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3701</t>
-  </si>
-  <si>
-    <t>69108</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2369</t>
-  </si>
-  <si>
-    <t>12679</t>
+    <t>27.088</t>
+  </si>
+  <si>
+    <t>1208.877</t>
+  </si>
+  <si>
+    <t>277.323</t>
+  </si>
+  <si>
+    <t>26.604</t>
+  </si>
+  <si>
+    <t>32.508</t>
+  </si>
+  <si>
+    <t>28.508</t>
+  </si>
+  <si>
+    <t>74.068</t>
+  </si>
+  <si>
+    <t>3897.994</t>
+  </si>
+  <si>
+    <t>1432.114</t>
+  </si>
+  <si>
+    <t>8572.135</t>
+  </si>
+  <si>
+    <t>725.533</t>
+  </si>
+  <si>
+    <t>75.084</t>
+  </si>
+  <si>
+    <t>1319.491</t>
+  </si>
+  <si>
+    <t>25.26</t>
+  </si>
+  <si>
+    <t>1764.539</t>
+  </si>
+  <si>
+    <t>26.446</t>
+  </si>
+  <si>
+    <t>86.84</t>
+  </si>
+  <si>
+    <t>2445.155</t>
+  </si>
+  <si>
+    <t>1282.459</t>
+  </si>
+  <si>
+    <t>1974.879</t>
+  </si>
+  <si>
+    <t>3594.731</t>
+  </si>
+  <si>
+    <t>9791.4915</t>
+  </si>
+  <si>
+    <t>48.566</t>
+  </si>
+  <si>
+    <t>393.679</t>
+  </si>
+  <si>
+    <t>255.613</t>
+  </si>
+  <si>
+    <t>8844.1085</t>
+  </si>
+  <si>
+    <t>-8914.068</t>
+  </si>
+  <si>
+    <t>1409.955</t>
+  </si>
+  <si>
+    <t>2.226</t>
+  </si>
+  <si>
+    <t>440.483</t>
+  </si>
+  <si>
+    <t>15743.214</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>4.028</t>
+  </si>
+  <si>
+    <t>1627.902</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>4992.0805</t>
   </si>
   <si>
     <t>输赢</t>
   </si>
   <si>
-    <t>70294</t>
-  </si>
-  <si>
-    <t>6184</t>
-  </si>
-  <si>
-    <t>-114191</t>
-  </si>
-  <si>
-    <t>-75801</t>
-  </si>
-  <si>
-    <t>135928</t>
-  </si>
-  <si>
-    <t>2982</t>
-  </si>
-  <si>
-    <t>-23209</t>
-  </si>
-  <si>
-    <t>64175</t>
-  </si>
-  <si>
-    <t>63531</t>
-  </si>
-  <si>
-    <t>34753</t>
-  </si>
-  <si>
-    <t>47231</t>
-  </si>
-  <si>
-    <t>53936</t>
-  </si>
-  <si>
-    <t>18477</t>
-  </si>
-  <si>
-    <t>-17497</t>
-  </si>
-  <si>
-    <t>57142</t>
-  </si>
-  <si>
-    <t>24210</t>
-  </si>
-  <si>
-    <t>2245</t>
-  </si>
-  <si>
-    <t>155129</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>27751</t>
-  </si>
-  <si>
-    <t>13341</t>
-  </si>
-  <si>
-    <t>68496</t>
-  </si>
-  <si>
-    <t>-30695</t>
-  </si>
-  <si>
-    <t>-55239</t>
-  </si>
-  <si>
-    <t>-127</t>
-  </si>
-  <si>
-    <t>-145790</t>
-  </si>
-  <si>
-    <t>204236</t>
-  </si>
-  <si>
-    <t>-26499</t>
-  </si>
-  <si>
-    <t>56566</t>
+    <t>-1569.85</t>
+  </si>
+  <si>
+    <t>35468.25</t>
+  </si>
+  <si>
+    <t>5322.3</t>
+  </si>
+  <si>
+    <t>350.35</t>
+  </si>
+  <si>
+    <t>724.25</t>
+  </si>
+  <si>
+    <t>1298.65</t>
+  </si>
+  <si>
+    <t>-5347.4</t>
+  </si>
+  <si>
+    <t>27545.15</t>
+  </si>
+  <si>
+    <t>26727.95</t>
+  </si>
+  <si>
+    <t>177345.4</t>
+  </si>
+  <si>
+    <t>34902.65</t>
+  </si>
+  <si>
+    <t>6757.45</t>
+  </si>
+  <si>
+    <t>20449.9</t>
+  </si>
+  <si>
+    <t>-834.15</t>
+  </si>
+  <si>
+    <t>-58178.15</t>
+  </si>
+  <si>
+    <t>-332.9</t>
+  </si>
+  <si>
+    <t>-5278.75</t>
+  </si>
+  <si>
+    <t>-45930.5</t>
+  </si>
+  <si>
+    <t>13797.3</t>
+  </si>
+  <si>
+    <t>9210</t>
+  </si>
+  <si>
+    <t>21419.85</t>
+  </si>
+  <si>
+    <t>11975.27</t>
+  </si>
+  <si>
+    <t>4620.1</t>
+  </si>
+  <si>
+    <t>8993.85</t>
+  </si>
+  <si>
+    <t>1782.85</t>
+  </si>
+  <si>
+    <t>13781.81</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>66699.53</t>
+  </si>
+  <si>
+    <t>-381186.33</t>
+  </si>
+  <si>
+    <t>1047.92</t>
+  </si>
+  <si>
+    <t>2594.46</t>
+  </si>
+  <si>
+    <t>-9991.48</t>
+  </si>
+  <si>
+    <t>124656.36</t>
+  </si>
+  <si>
+    <t>36883.11</t>
+  </si>
+  <si>
+    <t>-231811.57</t>
+  </si>
+  <si>
+    <t>3454.51</t>
+  </si>
+  <si>
+    <t>-4358.11</t>
+  </si>
+  <si>
+    <t>314210.39</t>
+  </si>
+  <si>
+    <t>947.74</t>
+  </si>
+  <si>
+    <t>-968.72</t>
   </si>
   <si>
     <t>盈利</t>
   </si>
   <si>
-    <t>67500</t>
-  </si>
-  <si>
-    <t>5149</t>
-  </si>
-  <si>
-    <t>-119236</t>
-  </si>
-  <si>
-    <t>-78266</t>
-  </si>
-  <si>
-    <t>130404</t>
-  </si>
-  <si>
-    <t>-1271</t>
-  </si>
-  <si>
-    <t>-33299</t>
-  </si>
-  <si>
-    <t>61205</t>
-  </si>
-  <si>
-    <t>57582</t>
-  </si>
-  <si>
-    <t>31526</t>
-  </si>
-  <si>
-    <t>42052</t>
-  </si>
-  <si>
-    <t>36821</t>
-  </si>
-  <si>
-    <t>17619</t>
-  </si>
-  <si>
-    <t>-17668</t>
-  </si>
-  <si>
-    <t>47593</t>
-  </si>
-  <si>
-    <t>22983</t>
-  </si>
-  <si>
-    <t>1766</t>
-  </si>
-  <si>
-    <t>154765</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>9639</t>
-  </si>
-  <si>
-    <t>-6673</t>
-  </si>
-  <si>
-    <t>-173</t>
-  </si>
-  <si>
-    <t>201804</t>
-  </si>
-  <si>
-    <t>43318</t>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>-1596.998</t>
+  </si>
+  <si>
+    <t>34250.763</t>
+  </si>
+  <si>
+    <t>5044.812</t>
+  </si>
+  <si>
+    <t>323.746</t>
+  </si>
+  <si>
+    <t>691.742</t>
+  </si>
+  <si>
+    <t>1270.142</t>
+  </si>
+  <si>
+    <t>-5421.468</t>
+  </si>
+  <si>
+    <t>23328.742</t>
+  </si>
+  <si>
+    <t>25149.281</t>
+  </si>
+  <si>
+    <t>168368.78</t>
+  </si>
+  <si>
+    <t>34046.972</t>
+  </si>
+  <si>
+    <t>6682.366</t>
+  </si>
+  <si>
+    <t>18833.862</t>
+  </si>
+  <si>
+    <t>-859.41</t>
+  </si>
+  <si>
+    <t>-60451.063</t>
+  </si>
+  <si>
+    <t>-359.376</t>
+  </si>
+  <si>
+    <t>-5365.59</t>
+  </si>
+  <si>
+    <t>-48548.578</t>
+  </si>
+  <si>
+    <t>12108.282</t>
+  </si>
+  <si>
+    <t>6896.952</t>
+  </si>
+  <si>
+    <t>17719.855</t>
+  </si>
+  <si>
+    <t>668.005</t>
+  </si>
+  <si>
+    <t>4566.634</t>
+  </si>
+  <si>
+    <t>8599.605</t>
+  </si>
+  <si>
+    <t>1520.109</t>
+  </si>
+  <si>
+    <t>3096.1215</t>
+  </si>
+  <si>
+    <t>54949.536</t>
+  </si>
+  <si>
+    <t>-382596.285</t>
+  </si>
+  <si>
+    <t>1045.514</t>
+  </si>
+  <si>
+    <t>-10451.244</t>
+  </si>
+  <si>
+    <t>108886.5105</t>
+  </si>
+  <si>
+    <t>-231812.53</t>
+  </si>
+  <si>
+    <t>3449.51</t>
+  </si>
+  <si>
+    <t>312373.643</t>
+  </si>
+  <si>
+    <t>947.735</t>
+  </si>
+  <si>
+    <t>-6197.101</t>
+  </si>
+  <si>
+    <t>分类</t>
   </si>
   <si>
     <t>1</t>
@@ -646,196 +868,256 @@
     <t>2</t>
   </si>
   <si>
-    <t>9.48%</t>
-  </si>
-  <si>
-    <t>-41.25%</t>
-  </si>
-  <si>
-    <t>2.37%</t>
-  </si>
-  <si>
-    <t>-60.58%</t>
+    <t>-23.39%</t>
+  </si>
+  <si>
+    <t>259.70%</t>
+  </si>
+  <si>
+    <t>11.33%</t>
+  </si>
+  <si>
+    <t>308.37%</t>
+  </si>
+  <si>
+    <t>7.97%</t>
+  </si>
+  <si>
+    <t>84.70%</t>
+  </si>
+  <si>
+    <t>5.27%</t>
+  </si>
+  <si>
+    <t>-91.77%</t>
+  </si>
+  <si>
+    <t>8.91%</t>
+  </si>
+  <si>
+    <t>-81.33%</t>
   </si>
   <si>
     <t>NaN%</t>
   </si>
   <si>
-    <t>-8.60%</t>
-  </si>
-  <si>
-    <t>-47.75%</t>
-  </si>
-  <si>
-    <t>-12.03%</t>
-  </si>
-  <si>
-    <t>-59.18%</t>
-  </si>
-  <si>
-    <t>9.84%</t>
-  </si>
-  <si>
-    <t>-35.99%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>-56.78%</t>
-  </si>
-  <si>
-    <t>-0.91%</t>
-  </si>
-  <si>
-    <t>118.13%</t>
-  </si>
-  <si>
-    <t>8.46%</t>
-  </si>
-  <si>
-    <t>-48.78%</t>
-  </si>
-  <si>
-    <t>4.25%</t>
-  </si>
-  <si>
-    <t>-66.66%</t>
-  </si>
-  <si>
-    <t>4.11%</t>
-  </si>
-  <si>
-    <t>-63.00%</t>
+    <t>18.22%</t>
+  </si>
+  <si>
+    <t>51.93%</t>
+  </si>
+  <si>
+    <t>-28.88%</t>
+  </si>
+  <si>
+    <t>474.17%</t>
+  </si>
+  <si>
+    <t>2.58%</t>
+  </si>
+  <si>
+    <t>79.84%</t>
+  </si>
+  <si>
+    <t>8.41%</t>
+  </si>
+  <si>
+    <t>-21.05%</t>
+  </si>
+  <si>
+    <t>7.43%</t>
+  </si>
+  <si>
+    <t>-38.48%</t>
+  </si>
+  <si>
+    <t>15.92%</t>
+  </si>
+  <si>
+    <t>-21.86%</t>
+  </si>
+  <si>
+    <t>36.00%</t>
+  </si>
+  <si>
+    <t>-32.27%</t>
+  </si>
+  <si>
+    <t>4.92%</t>
+  </si>
+  <si>
+    <t>-20.53%</t>
+  </si>
+  <si>
+    <t>-13.21%</t>
+  </si>
+  <si>
+    <t>-18.63%</t>
+  </si>
+  <si>
+    <t>-9.45%</t>
+  </si>
+  <si>
+    <t>70.31%</t>
+  </si>
+  <si>
+    <t>-5.03%</t>
+  </si>
+  <si>
+    <t>+Inf%</t>
+  </si>
+  <si>
+    <t>-24.31%</t>
+  </si>
+  <si>
+    <t>-74.63%</t>
+  </si>
+  <si>
+    <t>-11.12%</t>
+  </si>
+  <si>
+    <t>20.72%</t>
+  </si>
+  <si>
+    <t>3.06%</t>
+  </si>
+  <si>
+    <t>-0.71%</t>
+  </si>
+  <si>
+    <t>1.57%</t>
+  </si>
+  <si>
+    <t>30.50%</t>
+  </si>
+  <si>
+    <t>4.83%</t>
+  </si>
+  <si>
+    <t>0.82%</t>
+  </si>
+  <si>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>36.47%</t>
+  </si>
+  <si>
+    <t>14.64%</t>
+  </si>
+  <si>
+    <t>-12.40%</t>
+  </si>
+  <si>
+    <t>5.38%</t>
+  </si>
+  <si>
+    <t>275.36%</t>
+  </si>
+  <si>
+    <t>0.70%</t>
+  </si>
+  <si>
+    <t>74.39%</t>
+  </si>
+  <si>
+    <t>1.39%</t>
+  </si>
+  <si>
+    <t>-31.96%</t>
+  </si>
+  <si>
+    <t>18.38%</t>
+  </si>
+  <si>
+    <t>561.05%</t>
+  </si>
+  <si>
+    <t>8.37%</t>
+  </si>
+  <si>
+    <t>385.63%</t>
+  </si>
+  <si>
+    <t>-13.60%</t>
+  </si>
+  <si>
+    <t>65.33%</t>
+  </si>
+  <si>
+    <t>11.84%</t>
+  </si>
+  <si>
+    <t>60.77%</t>
   </si>
   <si>
     <t>3.64%</t>
   </si>
   <si>
-    <t>-44.70%</t>
-  </si>
-  <si>
-    <t>2.49%</t>
-  </si>
-  <si>
-    <t>70.13%</t>
-  </si>
-  <si>
-    <t>10.91%</t>
-  </si>
-  <si>
-    <t>-21.27%</t>
-  </si>
-  <si>
-    <t>-4.95%</t>
-  </si>
-  <si>
-    <t>256.80%</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>-18.70%</t>
-  </si>
-  <si>
-    <t>4.82%</t>
-  </si>
-  <si>
-    <t>-35.73%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>-58.86%</t>
-  </si>
-  <si>
-    <t>0.95%</t>
-  </si>
-  <si>
-    <t>-17.39%</t>
-  </si>
-  <si>
-    <t>12.43%</t>
-  </si>
-  <si>
-    <t>13.59%</t>
-  </si>
-  <si>
-    <t>5.59%</t>
-  </si>
-  <si>
-    <t>-30.53%</t>
-  </si>
-  <si>
-    <t>21.41%</t>
-  </si>
-  <si>
-    <t>2.94%</t>
-  </si>
-  <si>
-    <t>0.75%</t>
-  </si>
-  <si>
-    <t>-43.49%</t>
-  </si>
-  <si>
-    <t>1.00%</t>
-  </si>
-  <si>
-    <t>-7.25%</t>
-  </si>
-  <si>
-    <t>-12.54%</t>
-  </si>
-  <si>
-    <t>58.95%</t>
-  </si>
-  <si>
-    <t>-2.36%</t>
-  </si>
-  <si>
-    <t>4.19%</t>
-  </si>
-  <si>
-    <t>-0.43%</t>
-  </si>
-  <si>
-    <t>-16.06%</t>
-  </si>
-  <si>
-    <t>-50.22%</t>
-  </si>
-  <si>
-    <t>149.78%</t>
-  </si>
-  <si>
-    <t>8.44%</t>
-  </si>
-  <si>
-    <t>5.23%</t>
-  </si>
-  <si>
-    <t>-2.98%</t>
-  </si>
-  <si>
-    <t>12.63%</t>
-  </si>
-  <si>
-    <t>1.81%</t>
-  </si>
-  <si>
-    <t>-8.16%</t>
+    <t>-58.97%</t>
+  </si>
+  <si>
+    <t>-4.45%</t>
+  </si>
+  <si>
+    <t>-24.20%</t>
+  </si>
+  <si>
+    <t>4.02%</t>
+  </si>
+  <si>
+    <t>-8.56%</t>
+  </si>
+  <si>
+    <t>11.89%</t>
+  </si>
+  <si>
+    <t>78.93%</t>
+  </si>
+  <si>
+    <t>-34.39%</t>
+  </si>
+  <si>
+    <t>-38.85%</t>
+  </si>
+  <si>
+    <t>16.50%</t>
+  </si>
+  <si>
+    <t>202.59%</t>
+  </si>
+  <si>
+    <t>-26.30%</t>
+  </si>
+  <si>
+    <t>75.90%</t>
+  </si>
+  <si>
+    <t>18.94%</t>
+  </si>
+  <si>
+    <t>13.11%</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>-89.69%</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>39.11%</t>
   </si>
   <si>
     <t>总计</t>
   </si>
   <si>
-    <t>-23.35%</t>
-  </si>
-  <si>
-    <t>0.02%</t>
+    <t>1.91%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
   </si>
   <si>
     <t>上周有效流水</t>
@@ -850,22 +1132,22 @@
     <t>杀率（未计算返水）</t>
   </si>
   <si>
-    <t>1080042</t>
-  </si>
-  <si>
-    <t>36876272</t>
-  </si>
-  <si>
-    <t>48110586</t>
-  </si>
-  <si>
-    <t>165670</t>
-  </si>
-  <si>
-    <t>618434</t>
-  </si>
-  <si>
-    <t>445514</t>
+    <t>718935</t>
+  </si>
+  <si>
+    <t>24006436.8</t>
+  </si>
+  <si>
+    <t>23556481</t>
+  </si>
+  <si>
+    <t>63537.8795</t>
+  </si>
+  <si>
+    <t>227597.44</t>
+  </si>
+  <si>
+    <t>136697.037</t>
   </si>
 </sst>
 </file>
@@ -1180,1020 +1462,1340 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="I1" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="J3" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="I9" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="J9" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="I10" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J10" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="J12" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="J13" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="H15" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
       <c r="J15" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="J16" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="H17" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
       <c r="I19" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="H20" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="I20" t="s">
-        <v>249</v>
+        <v>355</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="I21" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="H23" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H24" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" t="s">
+        <v>311</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" t="s">
+        <v>357</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" t="s">
-        <v>263</v>
-      </c>
-      <c r="J32" t="s">
-        <v>209</v>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" t="s">
+        <v>251</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>364</v>
+      </c>
+      <c r="F37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I37" t="s">
+        <v>363</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" t="s">
+        <v>348</v>
+      </c>
+      <c r="F38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" t="s">
+        <v>274</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" t="s">
+        <v>262</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>314</v>
+      </c>
+      <c r="F40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" t="s">
+        <v>272</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>游戏名称</t>
   </si>
@@ -97,9 +97,6 @@
     <t>加拿大PC28</t>
   </si>
   <si>
-    <t>幸运赛车</t>
-  </si>
-  <si>
     <t>澳洲幸运10</t>
   </si>
   <si>
@@ -358,7 +355,7 @@
     <t>2274</t>
   </si>
   <si>
-    <t>796761.8</t>
+    <t>796761</t>
   </si>
   <si>
     <t>2803242</t>
@@ -1135,7 +1132,7 @@
     <t>718935</t>
   </si>
   <si>
-    <t>24006436.8</t>
+    <t>24006436</t>
   </si>
   <si>
     <t>23556481</t>
@@ -1462,92 +1459,92 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s">
         <v>368</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
         <v>369</v>
       </c>
-      <c r="F1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" t="s">
-        <v>371</v>
-      </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" t="s">
         <v>365</v>
       </c>
-      <c r="B2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>374</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" t="s">
         <v>366</v>
-      </c>
-      <c r="F2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
@@ -1555,127 +1552,127 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8">
@@ -1683,31 +1680,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
@@ -1715,31 +1712,31 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1747,31 +1744,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
@@ -1779,31 +1776,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1811,31 +1808,31 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13">
@@ -1843,31 +1840,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14">
@@ -1875,31 +1872,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15">
@@ -1907,31 +1904,31 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16">
@@ -1939,31 +1936,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17">
@@ -1971,31 +1968,31 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
@@ -2003,31 +2000,31 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19">
@@ -2035,159 +2032,159 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24">
@@ -2195,95 +2192,95 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
@@ -2291,31 +2288,31 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
@@ -2323,63 +2320,63 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
@@ -2387,31 +2384,31 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
@@ -2419,31 +2416,31 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -2451,31 +2448,31 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
@@ -2483,63 +2480,63 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -2547,31 +2544,31 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
@@ -2579,95 +2576,95 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39">
@@ -2675,31 +2672,31 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -2707,95 +2704,95 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
